--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="add_user" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>username</t>
   </si>
@@ -23,16 +23,91 @@
     <t>valid</t>
   </si>
   <si>
+    <t>testcase name</t>
+  </si>
+  <si>
     <t>student</t>
   </si>
   <si>
     <t>moodle</t>
   </si>
   <si>
+    <t>Valid testcase</t>
+  </si>
+  <si>
     <t>moodle123</t>
   </si>
   <si>
+    <t>Wrong password</t>
+  </si>
+  <si>
     <t>student123</t>
+  </si>
+  <si>
+    <t>Non exist username</t>
+  </si>
+  <si>
+    <t>Both field invalid</t>
+  </si>
+  <si>
+    <t>Empty password</t>
+  </si>
+  <si>
+    <t>Empty username</t>
+  </si>
+  <si>
+    <t>Both field empty</t>
+  </si>
+  <si>
+    <t>new_password</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Bao</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>bao@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid first name</t>
+  </si>
+  <si>
+    <t>tester1</t>
+  </si>
+  <si>
+    <t>bao1@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid last name</t>
+  </si>
+  <si>
+    <t>admin@school.a</t>
+  </si>
+  <si>
+    <t>Invalid email</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Invalid username</t>
   </si>
 </sst>
 </file>
@@ -303,70 +378,94 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -383,7 +482,160 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -5,6 +5,10 @@
   <sheets>
     <sheet state="visible" name="login" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="add_user" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="grade_submission" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="asm_due_date" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="create_course" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="change_password" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>username</t>
   </si>
@@ -108,6 +112,147 @@
   </si>
   <si>
     <t>Invalid username</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>feeback_length</t>
+  </si>
+  <si>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>Normal testcase</t>
+  </si>
+  <si>
+    <t>Grade near upper boundary limit</t>
+  </si>
+  <si>
+    <t>Grade at upper boundary limit</t>
+  </si>
+  <si>
+    <t>Grade over upper boundary limit</t>
+  </si>
+  <si>
+    <t>Grade near lower boundary limit</t>
+  </si>
+  <si>
+    <t>Grade at lower boundary limit</t>
+  </si>
+  <si>
+    <t>Grade below lower boundary limit</t>
+  </si>
+  <si>
+    <t>Grade is decimals</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Grade is not numbers</t>
+  </si>
+  <si>
+    <t>Grade is empty</t>
+  </si>
+  <si>
+    <t>Feedback is empty</t>
+  </si>
+  <si>
+    <t>Feedback is 10,000 characters</t>
+  </si>
+  <si>
+    <t>Feedback is 100,000 characters</t>
+  </si>
+  <si>
+    <t>Don't notify student</t>
+  </si>
+  <si>
+    <t>from_date</t>
+  </si>
+  <si>
+    <t>from_month</t>
+  </si>
+  <si>
+    <t>from_year</t>
+  </si>
+  <si>
+    <t>due_date</t>
+  </si>
+  <si>
+    <t>due_month</t>
+  </si>
+  <si>
+    <t>due_year</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Start date is the same as due date</t>
+  </si>
+  <si>
+    <t>Start date is before due date</t>
+  </si>
+  <si>
+    <t>course_full_name</t>
+  </si>
+  <si>
+    <t>course_short_name</t>
+  </si>
+  <si>
+    <t>course_category</t>
+  </si>
+  <si>
+    <t>My Course</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Art and Media</t>
+  </si>
+  <si>
+    <t>MC1</t>
+  </si>
+  <si>
+    <t>Empty course full name</t>
+  </si>
+  <si>
+    <t>My Course1</t>
+  </si>
+  <si>
+    <t>Empty course short name</t>
+  </si>
+  <si>
+    <t>Empty course category</t>
+  </si>
+  <si>
+    <t>current_password</t>
+  </si>
+  <si>
+    <t>repeat_new_password</t>
+  </si>
+  <si>
+    <t>moodle1</t>
+  </si>
+  <si>
+    <t>Incorrect current password</t>
+  </si>
+  <si>
+    <t>New password not different from old one</t>
+  </si>
+  <si>
+    <t>Repeat password not match new password</t>
+  </si>
+  <si>
+    <t>Empty current password</t>
+  </si>
+  <si>
+    <t>Empty new password</t>
+  </si>
+  <si>
+    <t>Empty repeat password</t>
   </si>
 </sst>
 </file>
@@ -161,6 +306,22 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -638,4 +799,623 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>50.005</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -9,6 +9,9 @@
     <sheet state="visible" name="asm_due_date" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="create_course" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="change_password" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="edit_profile" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="enroll_student" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="submit_asm" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>username</t>
   </si>
@@ -27,54 +30,57 @@
     <t>valid</t>
   </si>
   <si>
+    <t>Testcase name</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>moodle</t>
+  </si>
+  <si>
+    <t>Valid testcase</t>
+  </si>
+  <si>
+    <t>moodle123</t>
+  </si>
+  <si>
+    <t>Wrong password</t>
+  </si>
+  <si>
+    <t>student123</t>
+  </si>
+  <si>
+    <t>Non exist username</t>
+  </si>
+  <si>
+    <t>Both field invalid</t>
+  </si>
+  <si>
+    <t>Empty password</t>
+  </si>
+  <si>
+    <t>Empty username</t>
+  </si>
+  <si>
+    <t>Both field empty</t>
+  </si>
+  <si>
+    <t>new_password</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>testcase name</t>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>moodle</t>
-  </si>
-  <si>
-    <t>Valid testcase</t>
-  </si>
-  <si>
-    <t>moodle123</t>
-  </si>
-  <si>
-    <t>Wrong password</t>
-  </si>
-  <si>
-    <t>student123</t>
-  </si>
-  <si>
-    <t>Non exist username</t>
-  </si>
-  <si>
-    <t>Both field invalid</t>
-  </si>
-  <si>
-    <t>Empty password</t>
-  </si>
-  <si>
-    <t>Empty username</t>
-  </si>
-  <si>
-    <t>Both field empty</t>
-  </si>
-  <si>
-    <t>new_password</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>tester</t>
   </si>
   <si>
@@ -253,13 +259,85 @@
   </si>
   <si>
     <t>Empty repeat password</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Khoi</t>
+  </si>
+  <si>
+    <t>lekhoi@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid test case</t>
+  </si>
+  <si>
+    <t>Empty first name</t>
+  </si>
+  <si>
+    <t>Empty last name</t>
+  </si>
+  <si>
+    <t>Empty email</t>
+  </si>
+  <si>
+    <t>lekhoi</t>
+  </si>
+  <si>
+    <t>student_name</t>
+  </si>
+  <si>
+    <t>test case name</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Ann Hansen</t>
+  </si>
+  <si>
+    <t>Valid student name</t>
+  </si>
+  <si>
+    <t>Student already enrolled in course</t>
+  </si>
+  <si>
+    <t>ABCDEFG</t>
+  </si>
+  <si>
+    <t>Invalid student name</t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>Valid submission</t>
+  </si>
+  <si>
+    <t>File too large</t>
+  </si>
+  <si>
+    <t>Wrong file format</t>
+  </si>
+  <si>
+    <t>Late submission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -270,6 +348,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,12 +369,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,6 +414,18 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -542,6 +646,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -556,6 +663,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -570,6 +680,9 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -584,6 +697,9 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -598,6 +714,9 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -609,6 +728,9 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
@@ -620,6 +742,9 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8">
       <c r="C8" s="1" t="b">
@@ -628,6 +753,15 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -664,24 +798,31 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1.23456789E8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -689,112 +830,169 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1.23456789E8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>1.23456789E8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>1.23456789E8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>1.23456789E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -813,20 +1011,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -842,8 +1047,15 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -859,8 +1071,15 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -876,8 +1095,15 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -893,8 +1119,15 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -910,8 +1143,15 @@
         <v>0.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -927,8 +1167,15 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -944,8 +1191,15 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -961,12 +1215,17 @@
         <v>0.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>100.0</v>
@@ -978,8 +1237,13 @@
         <v>2.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11">
       <c r="B11" s="1">
@@ -992,8 +1256,13 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -1009,8 +1278,13 @@
         <v>0.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -1026,8 +1300,13 @@
         <v>0.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -1043,8 +1322,13 @@
         <v>3.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -1060,8 +1344,20 @@
         <v>0.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1080,36 +1376,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>8.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>2023.0</v>
@@ -1118,7 +1422,7 @@
         <v>15.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1">
         <v>2023.0</v>
@@ -1129,13 +1433,21 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>8.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>2023.0</v>
@@ -1144,7 +1456,7 @@
         <v>8.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>2023.0</v>
@@ -1153,15 +1465,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>9.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
@@ -1170,7 +1490,7 @@
         <v>8.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>2023.0</v>
@@ -1179,8 +1499,94 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1199,30 +1605,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
@@ -1230,48 +1644,87 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1290,30 +1743,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
@@ -1321,89 +1779,119 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1412,7 +1900,377 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
